--- a/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>83,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>64,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66,43%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78,77%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>119,55%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,45</t>
+          <t>1,86; 9,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 10,35</t>
+          <t>2,96; 10,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,95</t>
+          <t>2,32; 8,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,41</t>
+          <t>4,3; 11,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,83; 140,1</t>
+          <t>7,58; 15,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,75; 169,4</t>
+          <t>7,46; 16,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,77; 136,32</t>
+          <t>12,39; 129,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,22; 114,18</t>
+          <t>26,48; 160,95</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 130,46</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31,06; 112,96</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41,91; 122,22</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60,14; 207,56</t>
         </is>
       </c>
     </row>
@@ -720,17 +792,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,22 +812,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>123,18%</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>15,46</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>122,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>158,84%</t>
+          <t>90,02%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>88,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>158,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>73,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>161,88%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 12,27</t>
+          <t>4,03; 12,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,2</t>
+          <t>2,98; 10,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,31</t>
+          <t>3,14; 11,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 21,96</t>
+          <t>7,34; 21,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,05; 243,57</t>
+          <t>3,72; 18,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,93; 172,81</t>
+          <t>10,07; 20,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,87; 164,11</t>
+          <t>43,32; 242,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,7; 317,44</t>
+          <t>34,94; 195,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 169,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56,13; 315,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19,69; 155,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87,63; 267,52</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>154,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>149,02%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>129,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>114,12%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 26,22</t>
+          <t>0,93; 18,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 9,38</t>
+          <t>-6,45; 9,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 19,79</t>
+          <t>4,02; 20,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,63; 380,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 92,72</t>
+          <t>0,52; 19,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,87; 395,61</t>
+          <t>-0,97; 268,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-34,23; 95,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27,28; 385,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 318,88</t>
         </is>
       </c>
     </row>
@@ -920,17 +1072,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,22 +1092,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>81,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>83,64%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>77,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>135,21%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,32</t>
+          <t>4,47; 10,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,36</t>
+          <t>3,56; 8,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,93</t>
+          <t>4,29; 9,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 12,38</t>
+          <t>6,32; 12,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,2; 153,82</t>
+          <t>8,25; 15,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,67; 121,0</t>
+          <t>10,09; 17,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,22; 125,36</t>
+          <t>42,11; 143,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,98; 125,98</t>
+          <t>35,6; 111,88</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 124,88</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48,92; 128,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>50,22; 119,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87,58; 199,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>11,6</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,77</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66,81%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>83,11%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>64,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>66,43%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>78,77%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>119,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.863307647919429</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.840603542629366</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.346271346387139</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.844928355742678</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>11.6854938608579</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>11.87175947344819</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.698632763046939</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8493008095636631</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6168971731688123</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.664338046274586</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.797782197691853</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.219813751968928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 9,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 10,28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 8,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,3; 11,53</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>7,58; 15,97</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,46; 16,15</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>12,39; 129,23</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>26,48; 160,95</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>20,94; 130,46</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>31,06; 112,96</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>41,91; 122,22</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>60,14; 207,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.816668773748026</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.9214966222466</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.980714049844716</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.300589637103408</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>7.681936436823545</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>7.374434953233836</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1321165218127981</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2683229681990834</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1837720629784263</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3106123301018568</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.4249206682600379</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.6140339788990481</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.269601809460035</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.24008404456104</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.552193032001997</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.52658579628832</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>16.02765395999751</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>16.18895675790827</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.3484178073878</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.636102459092325</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.234990117376466</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.129582419946551</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.221752173891032</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>2.103645487991591</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,51</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14,4</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,88</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>15,46</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>122,14%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>90,02%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>88,72%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>158,92%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>73,79%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>161,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 12,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 10,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 11,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,34; 21,74</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 18,23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,07; 20,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>43,32; 242,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>34,94; 195,24</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>29,47; 169,87</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>56,13; 315,94</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>19,69; 155,35</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>87,63; 267,52</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.684106180748628</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.328415459334237</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.950934489187767</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>14.39895005376367</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.83887782999343</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>15.51148871302475</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.080918216070841</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9351078279884117</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.8602417462935816</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.589234003580507</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.7345940691536186</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.648260402176138</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,42</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,49</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10,9</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>84,61%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,78%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>129,52%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>114,12%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.08339319006936</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.169727430960635</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.008589477375569</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>7.336387721449531</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.584225050394673</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>10.30252573819099</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.30913125344257</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3562461006987336</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.2856259014512216</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.5613162696243695</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.2006375529579615</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.8928805413412688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 18,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 9,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,02; 20,11</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 19,37</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 268,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-34,23; 95,14</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>27,28; 385,72</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 318,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.75851897766012</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.21483846779757</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.32770151542256</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.73822220955051</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>18.14210844077048</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.76217057113121</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.19961161432417</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.999250185364589</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.65337273702278</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.159381783785811</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.544392699750292</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.662079142918761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11,44</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,1</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>87,47%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>70,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>81,48%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>83,64%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>77,67%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>135,21%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>13.27306441971498</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.021251503106361</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.01626447703357</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>11.44818130824547</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.428357143301039</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1416142147210467</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.446165281539999</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>1.221638113170035</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 10,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,56; 8,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 9,24</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,32; 12,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 15,25</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 17,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>42,11; 143,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>35,6; 111,88</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>44,46; 124,88</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>48,92; 128,55</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>50,22; 119,76</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>87,58; 199,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.009375337384289</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.084308883394086</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.864168265405496</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>1.127245129285516</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.285672310704002</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3308833281700828</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.3662394906520982</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>0.04059801104185855</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.44322744946287</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.25831572432559</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.43067746528398</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>20.22453441894812</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>3.916703279236607</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.010407090243543</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.072410767956336</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>3.244281057013075</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.418973265544262</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.067175874181717</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.734247117765609</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.325589549199513</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>11.49627967764545</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>13.23661703077455</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9283829105255116</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.730808393461448</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8028589081015522</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.8363579591675111</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.7834694948994112</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.384738522162734</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.634769821687085</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.672156107042803</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.210107791190418</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.323673254473672</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>8.308836400221423</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>10.1454665230638</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.4687549068342629</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3641925205639251</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.4386591306832329</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.4891855867347111</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.5072943628124539</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.9059573722065599</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.27375408476442</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.302893043389624</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.206247478988484</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.52752467729428</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>15.41786991927676</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>17.09482788713159</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.531280387548401</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.156138735600853</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.247648722212979</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.285477113697639</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.204480610806186</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.059490692665401</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
